--- a/Code/Results/Cases/Case_2_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.310534433114242</v>
+        <v>0.7270418549378519</v>
       </c>
       <c r="C2">
-        <v>0.5511010068077837</v>
+        <v>0.2183220345354471</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.445826519304802</v>
+        <v>0.4288618641543138</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.236433231497017</v>
+        <v>0.1658682458822369</v>
       </c>
       <c r="H2">
-        <v>0.1627047526892085</v>
+        <v>0.3179217265166372</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7323203450140454</v>
+        <v>0.7759822506049687</v>
       </c>
       <c r="O2">
-        <v>0.7943711997239973</v>
+        <v>0.8688947377034424</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.01462764767561</v>
+        <v>0.6344550015893731</v>
       </c>
       <c r="C3">
-        <v>0.4903717384444235</v>
+        <v>0.1986302810215079</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.242203982182133</v>
+        <v>0.3740835637659217</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.2087232650483557</v>
+        <v>0.161509437225817</v>
       </c>
       <c r="H3">
-        <v>0.1559084222079576</v>
+        <v>0.3197718048556268</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7140297114755327</v>
+        <v>0.7715108989491313</v>
       </c>
       <c r="O3">
-        <v>0.7210158365731729</v>
+        <v>0.8632572353802885</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.833056474744069</v>
+        <v>0.5774251797177499</v>
       </c>
       <c r="C4">
-        <v>0.4530582044405094</v>
+        <v>0.1864711635582523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.119375828947142</v>
+        <v>0.3405328773521035</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1925441149036899</v>
+        <v>0.1590513841166938</v>
       </c>
       <c r="H4">
-        <v>0.1522468096601557</v>
+        <v>0.3211357469931855</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7035906152009375</v>
+        <v>0.769101914212726</v>
       </c>
       <c r="O4">
-        <v>0.6788068524859199</v>
+        <v>0.8607265276269374</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.759068142014456</v>
+        <v>0.5541407890677021</v>
       </c>
       <c r="C5">
-        <v>0.4378417502793752</v>
+        <v>0.1814993588170921</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.069791197594427</v>
+        <v>0.3268800212226495</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1861419368746056</v>
+        <v>0.1581041564951278</v>
       </c>
       <c r="H5">
-        <v>0.1508748842840575</v>
+        <v>0.3217487728211879</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6995277555570567</v>
+        <v>0.768205152982361</v>
       </c>
       <c r="O5">
-        <v>0.6622605542918478</v>
+        <v>0.85992809931804</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.746781918985619</v>
+        <v>0.5502717971138793</v>
       </c>
       <c r="C6">
-        <v>0.4353142891849302</v>
+        <v>0.1806727849171068</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.061583708180237</v>
+        <v>0.3246140936602728</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1850898605492404</v>
+        <v>0.1579501458493269</v>
       </c>
       <c r="H6">
-        <v>0.1506541024291508</v>
+        <v>0.3218540170123916</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6988644458782147</v>
+        <v>0.7680613848783224</v>
       </c>
       <c r="O6">
-        <v>0.6595509436727696</v>
+        <v>0.8598095501004792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.832058661379449</v>
+        <v>0.5771113358654532</v>
       </c>
       <c r="C7">
-        <v>0.4528530397130339</v>
+        <v>0.1864041799372842</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.118705320526928</v>
+        <v>0.3403486740989905</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1924570239519525</v>
+        <v>0.1590383895920198</v>
       </c>
       <c r="H7">
-        <v>0.1522278313579548</v>
+        <v>0.3211437830013395</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.703535058089642</v>
+        <v>0.7690894759167719</v>
       </c>
       <c r="O7">
-        <v>0.6785811282783243</v>
+        <v>0.8607148184967173</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.208465193004884</v>
+        <v>0.6951562310368331</v>
       </c>
       <c r="C8">
-        <v>0.530164015429591</v>
+        <v>0.2115466731633262</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.375108952066597</v>
+        <v>0.4099559814636962</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2266937530328406</v>
+        <v>0.1643197610470892</v>
       </c>
       <c r="H8">
-        <v>0.1602500391783082</v>
+        <v>0.3185122416545596</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7258445870154873</v>
+        <v>0.7743708854088425</v>
       </c>
       <c r="O8">
-        <v>0.7684546548763933</v>
+        <v>0.8667570323315346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.94883685648955</v>
+        <v>0.9251601606953841</v>
       </c>
       <c r="C9">
-        <v>0.6817993013608543</v>
+        <v>0.2602977884466497</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.899525232928838</v>
+        <v>0.5471985066635767</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.3013784321427551</v>
+        <v>0.1764288983113573</v>
       </c>
       <c r="H9">
-        <v>0.1804453389811727</v>
+        <v>0.3151664844223063</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7762555919963603</v>
+        <v>0.7873849075876933</v>
       </c>
       <c r="O9">
-        <v>0.9699701255907769</v>
+        <v>0.8860465031119986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.496207068948763</v>
+        <v>1.09319709068825</v>
       </c>
       <c r="C10">
-        <v>0.7935932458131276</v>
+        <v>0.2957661528352844</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.304512224320689</v>
+        <v>0.6486047476104773</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.3622430948007036</v>
+        <v>0.186423211927746</v>
       </c>
       <c r="H10">
-        <v>0.1986171808136987</v>
+        <v>0.3138229417580192</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8179294338782768</v>
+        <v>0.7985520518447515</v>
       </c>
       <c r="O10">
-        <v>1.13767046619472</v>
+        <v>0.9048347211059422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.746476741979563</v>
+        <v>1.169427645025678</v>
       </c>
       <c r="C11">
-        <v>0.8446303360076399</v>
+        <v>0.3118235522812256</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.49470673163664</v>
+        <v>0.6948885853739597</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.3915766493342971</v>
+        <v>0.1912146412897897</v>
       </c>
       <c r="H11">
-        <v>0.2077589088064684</v>
+        <v>0.3134555769324265</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8380340826748949</v>
+        <v>0.8039782092016026</v>
       </c>
       <c r="O11">
-        <v>1.219271649789363</v>
+        <v>0.9144018107482168</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.841476662319053</v>
+        <v>1.198262884874339</v>
       </c>
       <c r="C12">
-        <v>0.8639916697594572</v>
+        <v>0.3178926856266173</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.567747125691497</v>
+        <v>0.7124391560133745</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.4029529592349803</v>
+        <v>0.1930647511803016</v>
       </c>
       <c r="H12">
-        <v>0.2113604783550471</v>
+        <v>0.313351670539106</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8458246959385463</v>
+        <v>0.8060824742386217</v>
       </c>
       <c r="O12">
-        <v>1.251032627756814</v>
+        <v>0.9181726839399573</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.821005795573967</v>
+        <v>1.192054128057464</v>
       </c>
       <c r="C13">
-        <v>0.8598201684256708</v>
+        <v>0.3165861039501863</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.551968521629021</v>
+        <v>0.7086582355407529</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.4004903954232333</v>
+        <v>0.1926647016155272</v>
       </c>
       <c r="H13">
-        <v>0.210578361799648</v>
+        <v>0.3133724804842188</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.844138747753874</v>
+        <v>0.8056270861294905</v>
       </c>
       <c r="O13">
-        <v>1.244152430594738</v>
+        <v>0.917353954549867</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.75428758818606</v>
+        <v>1.171800579071487</v>
       </c>
       <c r="C14">
-        <v>0.8462224561129403</v>
+        <v>0.3123230950230891</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.50069441625196</v>
+        <v>0.6963319923408449</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.3925070149313541</v>
+        <v>0.1913661327561869</v>
       </c>
       <c r="H14">
-        <v>0.2080523256692857</v>
+        <v>0.3134463220586667</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8386713903182397</v>
+        <v>0.8041503379472914</v>
       </c>
       <c r="O14">
-        <v>1.221866815410152</v>
+        <v>0.9147090685915771</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.713451927111862</v>
+        <v>1.159390537327965</v>
       </c>
       <c r="C15">
-        <v>0.8378982567077742</v>
+        <v>0.3097103772528556</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.469425215631603</v>
+        <v>0.6887849766281704</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.3876529012401875</v>
+        <v>0.1905753850408018</v>
       </c>
       <c r="H15">
-        <v>0.2065236980455012</v>
+        <v>0.3134961414438493</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8353459686850044</v>
+        <v>0.8032522247780776</v>
       </c>
       <c r="O15">
-        <v>1.208331300871976</v>
+        <v>0.9131083157428179</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.479880686399042</v>
+        <v>1.088210895231327</v>
       </c>
       <c r="C16">
-        <v>0.7902622146434055</v>
+        <v>0.2947151791693159</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.292215808164158</v>
+        <v>0.6455832343717702</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.3603618332518295</v>
+        <v>0.1861150505825151</v>
       </c>
       <c r="H16">
-        <v>0.1980385204145279</v>
+        <v>0.3138518686272391</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8166396730054117</v>
+        <v>0.7982043812617121</v>
       </c>
       <c r="O16">
-        <v>1.132452577212945</v>
+        <v>0.9042301314289034</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.336948233636235</v>
+        <v>1.044489648070794</v>
       </c>
       <c r="C17">
-        <v>0.7610913148089935</v>
+        <v>0.2854960643796858</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.18513876042708</v>
+        <v>0.6191209843935326</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.3440627658172559</v>
+        <v>0.1834418585014816</v>
       </c>
       <c r="H17">
-        <v>0.1930668112523648</v>
+        <v>0.3141326472300818</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8054663156973874</v>
+        <v>0.7951961521616084</v>
       </c>
       <c r="O17">
-        <v>1.087329961865834</v>
+        <v>0.8990458948276512</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.254853617137258</v>
+        <v>1.019322631669809</v>
       </c>
       <c r="C18">
-        <v>0.7443294906683775</v>
+        <v>0.2801862138899764</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.124101494311233</v>
+        <v>0.6039149503132393</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.3348408262836529</v>
+        <v>0.181927338129185</v>
       </c>
       <c r="H18">
-        <v>0.1902886899145955</v>
+        <v>0.3143170843340641</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.799146853997172</v>
+        <v>0.793498497650333</v>
       </c>
       <c r="O18">
-        <v>1.06187046204343</v>
+        <v>0.8961600096104121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.227076454976213</v>
+        <v>1.010798168984877</v>
       </c>
       <c r="C19">
-        <v>0.7386568148914137</v>
+        <v>0.2783871531427167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.103525340604804</v>
+        <v>0.5987688590430622</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.3317437740610103</v>
+        <v>0.1814184883805297</v>
       </c>
       <c r="H19">
-        <v>0.1893616562032747</v>
+        <v>0.3143834672253973</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7970252329799905</v>
+        <v>0.7929293086531572</v>
       </c>
       <c r="O19">
-        <v>1.053332345866124</v>
+        <v>0.8951993380266003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.352151278762165</v>
+        <v>1.04914589952881</v>
       </c>
       <c r="C20">
-        <v>0.7641948396583302</v>
+        <v>0.2864782086466846</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.19647921226786</v>
+        <v>0.6219364377537886</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.3457817902381635</v>
+        <v>0.183724037514466</v>
       </c>
       <c r="H20">
-        <v>0.1935875292585223</v>
+        <v>0.3141003825390953</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8066445609510993</v>
+        <v>0.7955130114367108</v>
       </c>
       <c r="O20">
-        <v>1.092081563404719</v>
+        <v>0.8995878256149581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.773877758752008</v>
+        <v>1.177750406370478</v>
       </c>
       <c r="C21">
-        <v>0.8502154182780828</v>
+        <v>0.313575557631026</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.515725857443485</v>
+        <v>0.6999518461297498</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3948443769862848</v>
+        <v>0.191746581253625</v>
       </c>
       <c r="H21">
-        <v>0.2087903718103519</v>
+        <v>0.3134236763335281</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8402723661846636</v>
+        <v>0.8045827535602541</v>
       </c>
       <c r="O21">
-        <v>1.22838847509729</v>
+        <v>0.9154819078869707</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.050855655497912</v>
+        <v>1.261615965852798</v>
       </c>
       <c r="C22">
-        <v>0.9066418708511037</v>
+        <v>0.3312183174540451</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.730395092715327</v>
+        <v>0.7510794944355155</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.4284906846477128</v>
+        <v>0.1971980819835295</v>
       </c>
       <c r="H22">
-        <v>0.2195486361305825</v>
+        <v>0.3131866894222526</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8632907425096619</v>
+        <v>0.8107987349008141</v>
       </c>
       <c r="O22">
-        <v>1.322539718110903</v>
+        <v>0.9267330186176821</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.902886850617904</v>
+        <v>1.216872711842257</v>
       </c>
       <c r="C23">
-        <v>0.8765039355306214</v>
+        <v>0.3218082780102804</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.615212343763957</v>
+        <v>0.7237782928742718</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.4103770464258076</v>
+        <v>0.1942692969134612</v>
       </c>
       <c r="H23">
-        <v>0.2137265326608428</v>
+        <v>0.3132943423467793</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.850905792094224</v>
+        <v>0.8074548531010635</v>
       </c>
       <c r="O23">
-        <v>1.271791428028251</v>
+        <v>0.9206486518461361</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.345277738915001</v>
+        <v>1.047040904981429</v>
       </c>
       <c r="C24">
-        <v>0.7627917089426717</v>
+        <v>0.286034211287074</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.191350577564251</v>
+        <v>0.6206635482033107</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.3450041587592807</v>
+        <v>0.18359639485125</v>
       </c>
       <c r="H24">
-        <v>0.1933518639401086</v>
+        <v>0.3141148977271087</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8061115524876783</v>
+        <v>0.7953696602267684</v>
       </c>
       <c r="O24">
-        <v>1.089931869899942</v>
+        <v>0.8993425241202715</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.748106493135253</v>
+        <v>0.8631011742364763</v>
       </c>
       <c r="C25">
-        <v>0.6407391014673749</v>
+        <v>0.2471697761009466</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.754713813236478</v>
+        <v>0.5099787580083301</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.280229653692345</v>
+        <v>0.1729624105080205</v>
       </c>
       <c r="H25">
-        <v>0.1744439316885291</v>
+        <v>0.3158764701235413</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7618480582759872</v>
+        <v>0.7835812886509785</v>
       </c>
       <c r="O25">
-        <v>0.9123331884471213</v>
+        <v>0.8800233311974921</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7270418549378519</v>
+        <v>2.310534433114469</v>
       </c>
       <c r="C2">
-        <v>0.2183220345354471</v>
+        <v>0.5511010068077837</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4288618641543138</v>
+        <v>1.445826519304816</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1658682458822369</v>
+        <v>0.2364332314970099</v>
       </c>
       <c r="H2">
-        <v>0.3179217265166372</v>
+        <v>0.1627047526892085</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7759822506049687</v>
+        <v>0.7323203450139886</v>
       </c>
       <c r="O2">
-        <v>0.8688947377034424</v>
+        <v>0.7943711997240115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6344550015893731</v>
+        <v>2.01462764767561</v>
       </c>
       <c r="C3">
-        <v>0.1986302810215079</v>
+        <v>0.4903717384442245</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3740835637659217</v>
+        <v>1.242203982182119</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.161509437225817</v>
+        <v>0.2087232650483557</v>
       </c>
       <c r="H3">
-        <v>0.3197718048556268</v>
+        <v>0.1559084222079576</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7715108989491313</v>
+        <v>0.7140297114755896</v>
       </c>
       <c r="O3">
-        <v>0.8632572353802885</v>
+        <v>0.7210158365731729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5774251797177499</v>
+        <v>1.833056474743927</v>
       </c>
       <c r="C4">
-        <v>0.1864711635582523</v>
+        <v>0.4530582044405094</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3405328773521035</v>
+        <v>1.119375828947128</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1590513841166938</v>
+        <v>0.1925441149037752</v>
       </c>
       <c r="H4">
-        <v>0.3211357469931855</v>
+        <v>0.1522468096601557</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.769101914212726</v>
+        <v>0.7035906152009233</v>
       </c>
       <c r="O4">
-        <v>0.8607265276269374</v>
+        <v>0.6788068524859057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5541407890677021</v>
+        <v>1.759068142014485</v>
       </c>
       <c r="C5">
-        <v>0.1814993588170921</v>
+        <v>0.4378417502794036</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3268800212226495</v>
+        <v>1.069791197594441</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1581041564951278</v>
+        <v>0.18614193687457</v>
       </c>
       <c r="H5">
-        <v>0.3217487728211879</v>
+        <v>0.1508748842840575</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.768205152982361</v>
+        <v>0.6995277555570993</v>
       </c>
       <c r="O5">
-        <v>0.85992809931804</v>
+        <v>0.6622605542918194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5502717971138793</v>
+        <v>1.746781918985391</v>
       </c>
       <c r="C6">
-        <v>0.1806727849171068</v>
+        <v>0.435314289184987</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3246140936602728</v>
+        <v>1.061583708180223</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1579501458493269</v>
+        <v>0.1850898605492972</v>
       </c>
       <c r="H6">
-        <v>0.3218540170123916</v>
+        <v>0.1506541024292645</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7680613848783224</v>
+        <v>0.6988644458782147</v>
       </c>
       <c r="O6">
-        <v>0.8598095501004792</v>
+        <v>0.6595509436727696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5771113358654532</v>
+        <v>1.832058661379591</v>
       </c>
       <c r="C7">
-        <v>0.1864041799372842</v>
+        <v>0.4528530397129771</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3403486740989905</v>
+        <v>1.1187053205269</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1590383895920198</v>
+        <v>0.1924570239519454</v>
       </c>
       <c r="H7">
-        <v>0.3211437830013395</v>
+        <v>0.1522278313579477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7690894759167719</v>
+        <v>0.7035350580896278</v>
       </c>
       <c r="O7">
-        <v>0.8607148184967173</v>
+        <v>0.6785811282782959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6951562310368331</v>
+        <v>2.208465193004884</v>
       </c>
       <c r="C8">
-        <v>0.2115466731633262</v>
+        <v>0.5301640154294489</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4099559814636962</v>
+        <v>1.375108952066583</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1643197610470892</v>
+        <v>0.2266937530328903</v>
       </c>
       <c r="H8">
-        <v>0.3185122416545596</v>
+        <v>0.1602500391783082</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7743708854088425</v>
+        <v>0.7258445870154873</v>
       </c>
       <c r="O8">
-        <v>0.8667570323315346</v>
+        <v>0.7684546548763933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9251601606953841</v>
+        <v>2.948836856489663</v>
       </c>
       <c r="C9">
-        <v>0.2602977884466497</v>
+        <v>0.6817993013607122</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5471985066635767</v>
+        <v>1.899525232928838</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1764288983113573</v>
+        <v>0.3013784321427551</v>
       </c>
       <c r="H9">
-        <v>0.3151664844223063</v>
+        <v>0.1804453389811727</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7873849075876933</v>
+        <v>0.7762555919963035</v>
       </c>
       <c r="O9">
-        <v>0.8860465031119986</v>
+        <v>0.96997012559072</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.09319709068825</v>
+        <v>3.496207068948763</v>
       </c>
       <c r="C10">
-        <v>0.2957661528352844</v>
+        <v>0.7935932458132982</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6486047476104773</v>
+        <v>2.304512224320632</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.186423211927746</v>
+        <v>0.3622430948006468</v>
       </c>
       <c r="H10">
-        <v>0.3138229417580192</v>
+        <v>0.1986171808136987</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7985520518447515</v>
+        <v>0.8179294338782626</v>
       </c>
       <c r="O10">
-        <v>0.9048347211059422</v>
+        <v>1.137670466194692</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.169427645025678</v>
+        <v>3.746476741979677</v>
       </c>
       <c r="C11">
-        <v>0.3118235522812256</v>
+        <v>0.8446303360076115</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6948885853739597</v>
+        <v>2.494706731636626</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1912146412897897</v>
+        <v>0.3915766493342971</v>
       </c>
       <c r="H11">
-        <v>0.3134555769324265</v>
+        <v>0.2077589088065821</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8039782092016026</v>
+        <v>0.8380340826748238</v>
       </c>
       <c r="O11">
-        <v>0.9144018107482168</v>
+        <v>1.219271649789505</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.198262884874339</v>
+        <v>3.841476662319053</v>
       </c>
       <c r="C12">
-        <v>0.3178926856266173</v>
+        <v>0.8639916697595424</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7124391560133745</v>
+        <v>2.567747125691525</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.1930647511803016</v>
+        <v>0.4029529592349945</v>
       </c>
       <c r="H12">
-        <v>0.313351670539106</v>
+        <v>0.2113604783550329</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8060824742386217</v>
+        <v>0.8458246959385463</v>
       </c>
       <c r="O12">
-        <v>0.9181726839399573</v>
+        <v>1.251032627756814</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.192054128057464</v>
+        <v>3.821005795573967</v>
       </c>
       <c r="C13">
-        <v>0.3165861039501863</v>
+        <v>0.8598201684257276</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7086582355407529</v>
+        <v>2.551968521629036</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.1926647016155272</v>
+        <v>0.4004903954232191</v>
       </c>
       <c r="H13">
-        <v>0.3133724804842188</v>
+        <v>0.210578361799648</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8056270861294905</v>
+        <v>0.8441387477539308</v>
       </c>
       <c r="O13">
-        <v>0.917353954549867</v>
+        <v>1.244152430594738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.171800579071487</v>
+        <v>3.75428758818623</v>
       </c>
       <c r="C14">
-        <v>0.3123230950230891</v>
+        <v>0.8462224561129403</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6963319923408449</v>
+        <v>2.500694416251946</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1913661327561869</v>
+        <v>0.3925070149313541</v>
       </c>
       <c r="H14">
-        <v>0.3134463220586667</v>
+        <v>0.2080523256692857</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8041503379472914</v>
+        <v>0.8386713903182397</v>
       </c>
       <c r="O14">
-        <v>0.9147090685915771</v>
+        <v>1.221866815410095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.159390537327965</v>
+        <v>3.713451927111862</v>
       </c>
       <c r="C15">
-        <v>0.3097103772528556</v>
+        <v>0.8378982567080584</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6887849766281704</v>
+        <v>2.469425215631574</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1905753850408018</v>
+        <v>0.3876529012402159</v>
       </c>
       <c r="H15">
-        <v>0.3134961414438493</v>
+        <v>0.2065236980456149</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8032522247780776</v>
+        <v>0.8353459686850044</v>
       </c>
       <c r="O15">
-        <v>0.9131083157428179</v>
+        <v>1.208331300872089</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.088210895231327</v>
+        <v>3.479880686399156</v>
       </c>
       <c r="C16">
-        <v>0.2947151791693159</v>
+        <v>0.7902622146433487</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6455832343717702</v>
+        <v>2.292215808164116</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1861150505825151</v>
+        <v>0.360361833251801</v>
       </c>
       <c r="H16">
-        <v>0.3138518686272391</v>
+        <v>0.1980385204145279</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7982043812617121</v>
+        <v>0.8166396730054259</v>
       </c>
       <c r="O16">
-        <v>0.9042301314289034</v>
+        <v>1.132452577212916</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.044489648070794</v>
+        <v>3.336948233636065</v>
       </c>
       <c r="C17">
-        <v>0.2854960643796858</v>
+        <v>0.7610913148092777</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6191209843935326</v>
+        <v>2.185138760427094</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.1834418585014816</v>
+        <v>0.3440627658172701</v>
       </c>
       <c r="H17">
-        <v>0.3141326472300818</v>
+        <v>0.1930668112524785</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7951961521616084</v>
+        <v>0.8054663156974442</v>
       </c>
       <c r="O17">
-        <v>0.8990458948276512</v>
+        <v>1.087329961865777</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.019322631669809</v>
+        <v>3.254853617137087</v>
       </c>
       <c r="C18">
-        <v>0.2801862138899764</v>
+        <v>0.7443294906681786</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6039149503132393</v>
+        <v>2.124101494311205</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.181927338129185</v>
+        <v>0.3348408262836529</v>
       </c>
       <c r="H18">
-        <v>0.3143170843340641</v>
+        <v>0.1902886899146097</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.793498497650333</v>
+        <v>0.799146853997172</v>
       </c>
       <c r="O18">
-        <v>0.8961600096104121</v>
+        <v>1.061870462043487</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.010798168984877</v>
+        <v>3.227076454976213</v>
       </c>
       <c r="C19">
-        <v>0.2783871531427167</v>
+        <v>0.7386568148912147</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5987688590430622</v>
+        <v>2.10352534060479</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.1814184883805297</v>
+        <v>0.3317437740610387</v>
       </c>
       <c r="H19">
-        <v>0.3143834672253973</v>
+        <v>0.189361656203161</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7929293086531572</v>
+        <v>0.7970252329799905</v>
       </c>
       <c r="O19">
-        <v>0.8951993380266003</v>
+        <v>1.053332345866039</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.04914589952881</v>
+        <v>3.352151278762278</v>
       </c>
       <c r="C20">
-        <v>0.2864782086466846</v>
+        <v>0.7641948396585576</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6219364377537886</v>
+        <v>2.196479212267789</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.183724037514466</v>
+        <v>0.3457817902380498</v>
       </c>
       <c r="H20">
-        <v>0.3141003825390953</v>
+        <v>0.1935875292585081</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7955130114367108</v>
+        <v>0.8066445609510993</v>
       </c>
       <c r="O20">
-        <v>0.8995878256149581</v>
+        <v>1.092081563404776</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.177750406370478</v>
+        <v>3.773877758751951</v>
       </c>
       <c r="C21">
-        <v>0.313575557631026</v>
+        <v>0.850215418278367</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6999518461297498</v>
+        <v>2.515725857443513</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.191746581253625</v>
+        <v>0.3948443769863843</v>
       </c>
       <c r="H21">
-        <v>0.3134236763335281</v>
+        <v>0.2087903718103377</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8045827535602541</v>
+        <v>0.8402723661846778</v>
       </c>
       <c r="O21">
-        <v>0.9154819078869707</v>
+        <v>1.22838847509729</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.261615965852798</v>
+        <v>4.050855655497912</v>
       </c>
       <c r="C22">
-        <v>0.3312183174540451</v>
+        <v>0.9066418708510184</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7510794944355155</v>
+        <v>2.730395092715298</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.1971980819835295</v>
+        <v>0.428490684647727</v>
       </c>
       <c r="H22">
-        <v>0.3131866894222526</v>
+        <v>0.2195486361305825</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8107987349008141</v>
+        <v>0.8632907425096477</v>
       </c>
       <c r="O22">
-        <v>0.9267330186176821</v>
+        <v>1.322539718110903</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.216872711842257</v>
+        <v>3.902886850617904</v>
       </c>
       <c r="C23">
-        <v>0.3218082780102804</v>
+        <v>0.8765039355306499</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7237782928742718</v>
+        <v>2.615212343764</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.1942692969134612</v>
+        <v>0.4103770464258503</v>
       </c>
       <c r="H23">
-        <v>0.3132943423467793</v>
+        <v>0.2137265326608428</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8074548531010635</v>
+        <v>0.8509057920942098</v>
       </c>
       <c r="O23">
-        <v>0.9206486518461361</v>
+        <v>1.271791428028166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.047040904981429</v>
+        <v>3.345277738915001</v>
       </c>
       <c r="C24">
-        <v>0.286034211287074</v>
+        <v>0.7627917089427001</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6206635482033107</v>
+        <v>2.191350577564251</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.18359639485125</v>
+        <v>0.3450041587593944</v>
       </c>
       <c r="H24">
-        <v>0.3141148977271087</v>
+        <v>0.1933518639401086</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7953696602267684</v>
+        <v>0.8061115524876215</v>
       </c>
       <c r="O24">
-        <v>0.8993425241202715</v>
+        <v>1.089931869899857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8631011742364763</v>
+        <v>2.74810649313531</v>
       </c>
       <c r="C25">
-        <v>0.2471697761009466</v>
+        <v>0.6407391014673749</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5099787580083301</v>
+        <v>1.754713813236478</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1729624105080205</v>
+        <v>0.280229653692345</v>
       </c>
       <c r="H25">
-        <v>0.3158764701235413</v>
+        <v>0.1744439316884154</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7835812886509785</v>
+        <v>0.7618480582759872</v>
       </c>
       <c r="O25">
-        <v>0.8800233311974921</v>
+        <v>0.9123331884471213</v>
       </c>
     </row>
   </sheetData>
